--- a/Experiments/Fundamental_physics/Oscillation/data/data.xlsx
+++ b/Experiments/Fundamental_physics/Oscillation/data/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanto\Code\Code\Experiments\Fundamental_physics\Oscillation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14150596-0639-4A75-BA32-DB910E22E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B441ED-4707-4B88-A7FB-621804F17D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{72204295-9301-4AD7-BB7E-31EB572AEFF2}"/>
+    <workbookView xWindow="5415" yWindow="0" windowWidth="16185" windowHeight="13485" activeTab="4" xr2:uid="{72204295-9301-4AD7-BB7E-31EB572AEFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3A" sheetId="3" r:id="rId3"/>
     <sheet name="3P" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>V</t>
   </si>
@@ -71,28 +72,16 @@
     <t>avg_N</t>
   </si>
   <si>
-    <t>m5omega</t>
-  </si>
-  <si>
-    <t>m.5omega</t>
-  </si>
-  <si>
-    <t>.5omega</t>
-  </si>
-  <si>
-    <t>2omega</t>
-  </si>
-  <si>
-    <t>1omega</t>
-  </si>
-  <si>
-    <t>5omega</t>
-  </si>
-  <si>
-    <t>m2oemga</t>
-  </si>
-  <si>
-    <t>m1omega</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>phi1</t>
+  </si>
+  <si>
+    <t>phi2</t>
   </si>
 </sst>
 </file>
@@ -713,107 +702,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87111079-5765-4FAE-8E62-41E21E307569}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.128</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>22.40557966221807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>22.40557966221807</v>
-      </c>
-      <c r="C2">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E2">
+      <c r="F3">
+        <v>16.073352499560077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
         <v>0.754</v>
       </c>
-      <c r="F2">
+      <c r="C4">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>-0.5</v>
+      </c>
+      <c r="B5">
         <v>1.19</v>
       </c>
-      <c r="G2">
+      <c r="C5">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
         <v>1.06</v>
       </c>
-      <c r="H2">
+      <c r="C6">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>0.64900000000000002</v>
       </c>
-      <c r="I2">
+      <c r="C7">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>0.34599999999999997</v>
       </c>
-      <c r="J2">
+      <c r="C8">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>16.073352499560077</v>
-      </c>
-      <c r="C3">
-        <v>0.128</v>
-      </c>
-      <c r="D3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="F3">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.74</v>
-      </c>
-      <c r="H3">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.246</v>
-      </c>
-      <c r="J3">
+      <c r="C9">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
@@ -824,107 +834,296 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628E421-64B4-4308-8EB9-258C27337CA7}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E1" sqref="E1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>-0.13</v>
+      </c>
+      <c r="C2">
+        <v>-0.125</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>22.40557966221807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>-0.25</v>
+      </c>
+      <c r="C3">
+        <v>-0.27</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>16.073352499560077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>-0.48</v>
+      </c>
+      <c r="C4">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>-0.5</v>
+      </c>
+      <c r="B5">
+        <v>-0.78</v>
+      </c>
+      <c r="C5">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>-2.42</v>
+      </c>
+      <c r="C6">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-2.63</v>
+      </c>
+      <c r="C7">
+        <v>-2.7160000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-2.919</v>
+      </c>
+      <c r="C8">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-3.04</v>
+      </c>
+      <c r="C9">
+        <v>-3.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0619A5-B1AC-4046-8F5F-6C067A9DEF5B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.128</v>
+      </c>
+      <c r="D2">
+        <v>-0.13</v>
+      </c>
+      <c r="E2">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D3">
+        <v>-0.25</v>
+      </c>
+      <c r="E3">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>0.754</v>
+      </c>
+      <c r="C4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D4">
+        <v>-0.48</v>
+      </c>
+      <c r="E4">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>-0.5</v>
+      </c>
+      <c r="B5">
+        <v>1.19</v>
+      </c>
+      <c r="C5">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D5">
+        <v>-0.78</v>
+      </c>
+      <c r="E5">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>1.06</v>
+      </c>
+      <c r="C6">
+        <v>0.74</v>
+      </c>
+      <c r="D6">
+        <v>-2.42</v>
+      </c>
+      <c r="E6">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D7">
+        <v>-2.63</v>
+      </c>
+      <c r="E7">
+        <v>-2.7160000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.246</v>
+      </c>
+      <c r="D8">
+        <v>-2.919</v>
+      </c>
+      <c r="E8">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>22.40557966221807</v>
-      </c>
-      <c r="C2">
-        <v>-0.13</v>
-      </c>
-      <c r="D2">
-        <v>-0.25</v>
-      </c>
-      <c r="E2">
-        <v>-0.48</v>
-      </c>
-      <c r="F2">
-        <v>-0.78</v>
-      </c>
-      <c r="G2">
-        <v>-2.42</v>
-      </c>
-      <c r="H2">
-        <v>-2.63</v>
-      </c>
-      <c r="I2">
-        <v>-2.919</v>
-      </c>
-      <c r="J2">
+      <c r="B9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D9">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>16.073352499560077</v>
-      </c>
-      <c r="C3">
-        <v>-0.125</v>
-      </c>
-      <c r="D3">
-        <v>-0.27</v>
-      </c>
-      <c r="E3">
-        <v>-0.47</v>
-      </c>
-      <c r="F3">
-        <v>-0.81</v>
-      </c>
-      <c r="G3">
-        <v>-2.41</v>
-      </c>
-      <c r="H3">
-        <v>-2.7160000000000002</v>
-      </c>
-      <c r="I3">
-        <v>-2.93</v>
-      </c>
-      <c r="J3">
+      <c r="E9">
         <v>-3.03</v>
       </c>
     </row>
